--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sleepy\OneDrive\Documents\VS CODE\LBYARCH_MC02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{583EA2A7-9E08-4B4F-A2B6-EE8AF00E0686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32F7B4C-0986-4E66-8557-241F4E1A6790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{194B9D03-D71B-48F9-AE40-A6E8DFD3D3F1}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{194B9D03-D71B-48F9-AE40-A6E8DFD3D3F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,8 +71,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000000000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,13 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,17 +446,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B497973B-A6B2-4AF9-8DF5-9F0022EF920F}">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="9" max="11" width="20.109375" customWidth="1"/>
+    <col min="2" max="6" width="20.6796875" style="4" customWidth="1"/>
+    <col min="9" max="11" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -480,20 +488,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B3" s="3">
         <v>18.0419694138889</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>9.0958513064473276</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>8.2706855291114341</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>16.888240948786652</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <f>SQRT(K3)</f>
         <v>12.421565545593184</v>
       </c>
@@ -518,20 +526,20 @@
         <v>154.29529060346772</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B4" s="3">
         <v>30.571474523540058</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>16.647953424331231</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>-7.228177192709115</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>-27.371133965476947</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f t="shared" ref="F4:F32" si="0">SQRT(K4)</f>
         <v>24.486795367089318</v>
       </c>
@@ -556,20 +564,20 @@
         <v>599.60314734970689</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B5" s="3">
         <v>26.483278871027203</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>26.204005722039987</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>29.918977286504624</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>19.567423116980635</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>10.35532072010977</v>
       </c>
@@ -594,20 +602,20 @@
         <v>107.23266721633473</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B6" s="3">
         <v>-15.833345782408275</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>25.403306545793786</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>13.203067713897461</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>27.891646411370843</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>43.774602675397084</v>
       </c>
@@ -632,20 +640,20 @@
         <v>1916.2158393888812</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B7" s="3">
         <v>6.2193240852400882</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>-14.632648856551022</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>-18.010503570003465</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>13.746129848896205</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>37.990637552791398</v>
       </c>
@@ -670,20 +678,20 @@
         <v>1443.2885416675638</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B8" s="3">
         <v>23.464712183030819</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>25.442039586163371</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>27.582927453227114</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>10.458380347787736</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>17.238327564633149</v>
       </c>
@@ -708,20 +716,20 @@
         <v>297.15993722559102</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B9" s="3">
         <v>-1.1373481935777088</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>-28.217070704410805</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>-11.281162225675535</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>-24.821992563961871</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>30.276483572468855</v>
       </c>
@@ -746,20 +754,20 @@
         <v>916.66545751397643</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B10" s="3">
         <v>-17.994873133879448</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>-24.758269603747792</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>14.881693274313523</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>-17.527692755919794</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>33.107579716211667</v>
       </c>
@@ -784,20 +792,20 @@
         <v>1096.1118346653102</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B11" s="3">
         <v>24.612012605124864</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>-20.35780535702883</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>29.955698354757256</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>12.704428866405634</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>48.165245006217638</v>
       </c>
@@ -822,20 +830,20 @@
         <v>2319.8908265089731</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B12" s="3">
         <v>-4.7285411127788919</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>17.837449117885733</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>-3.9063646516815065</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>-10.796187913090851</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>23.59435482618477</v>
       </c>
@@ -860,20 +868,20 @@
         <v>556.69357966390851</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B13" s="3">
         <v>-6.1334144106650577</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>4.5962510003389792</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>18.07561583998422</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>-2.3135700570432567</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>23.040065567954457</v>
       </c>
@@ -898,20 +906,20 @@
         <v>530.8446213756406</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B14" s="3">
         <v>8.5115627024431415</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>-8.7585340883643497</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>-20.494816879861485</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>26.837672698321242</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>50.38472797220043</v>
       </c>
@@ -936,20 +944,20 @@
         <v>2538.6208128326361</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B15" s="3">
         <v>18.108742434451131</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>20.393738242282097</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>-4.5169918796096606</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>8.8919041669900167</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>13.602194640216025</v>
       </c>
@@ -974,20 +982,20 @@
         <v>185.01969903032156</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B16" s="3">
         <v>-25.3304390211634</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>-2.07896435909778</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>29.943238196362454</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>-17.43570280199366</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>52.776842687739375</v>
       </c>
@@ -1012,20 +1020,20 @@
         <v>2785.3951240863889</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B17" s="3">
         <v>10.557035132248268</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>24.666382102118401</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>-20.416489692811336</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>13.837388620006806</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>37.045942441589155</v>
       </c>
@@ -1050,20 +1058,20 @@
         <v>1372.4018513855367</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B18" s="3">
         <v>-18.371710396565685</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>27.371511549620987</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>-21.691127218948914</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>25.348614576062662</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>65.613867910369777</v>
       </c>
@@ -1088,20 +1096,20 @@
         <v>4305.1796621594531</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B19" s="3">
         <v>15.812090197772916</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>-12.815456831979677</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1.2178192246747908</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>9.2133826535007195</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>29.723147267492976</v>
       </c>
@@ -1126,20 +1134,20 @@
         <v>883.46548348507508</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B20" s="3">
         <v>25.840973640633962</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>-2.9433086227380785</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>3.4776315982705523</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>23.82473124390879</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>35.249671904955456</v>
       </c>
@@ -1164,20 +1172,20 @@
         <v>1242.539369407006</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B21" s="3">
         <v>15.856183459140983</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>29.393473848592823</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>13.481251318006871</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>22.469088844054362</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
         <v>16.249290891696557</v>
       </c>
@@ -1202,20 +1210,20 @@
         <v>264.03945448297264</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B22" s="3">
         <v>20.040901379493675</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>15.137598615858327</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>-22.880784114577676</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>9.6240303082612808</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
         <v>32.872562094474375</v>
       </c>
@@ -1240,20 +1248,20 @@
         <v>1080.6053386550734</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B23" s="3">
         <v>-15.983767390553899</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>13.936287894554662</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>8.6956218911908074</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>27.672517851926191</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
         <v>35.430668757003836</v>
       </c>
@@ -1278,20 +1286,20 @@
         <v>1255.3322885685277</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B24" s="3">
         <v>-2.1149937028639005</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>22.13850475059543</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>27.252413292724171</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>23.484513017510167</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
         <v>24.544434393888807</v>
       </c>
@@ -1316,20 +1324,20 @@
         <v>602.42925971591183</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B25" s="3">
         <v>0.85971422572306655</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>21.937811653520704</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>-8.3607256115009694</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>20.755671567730175</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <f t="shared" si="0"/>
         <v>35.945107815591101</v>
       </c>
@@ -1354,20 +1362,20 @@
         <v>1292.0507758744686</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B26" s="3">
         <v>3.6979036914629129</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>-27.447992298684149</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>-19.515536753893965</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>3.9526308172520119</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
         <v>38.997714371183939</v>
       </c>
@@ -1392,20 +1400,20 @@
         <v>1520.8217261764464</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B27" s="3">
         <v>26.767210850519422</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>-11.427489771645215</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>-16.208783951527749</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>-23.632080018155389</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <f t="shared" si="0"/>
         <v>38.909388071641438</v>
       </c>
@@ -1430,20 +1438,20 @@
         <v>1513.9404801095932</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B28" s="3">
         <v>12.443687342210838</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>-26.332699269704513</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>-5.1197910366453891</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>-29.344618607307062</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <f t="shared" si="0"/>
         <v>45.721443869425407</v>
       </c>
@@ -1468,20 +1476,20 @@
         <v>2090.4504295050178</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="4">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B29" s="3">
         <v>30.53729945762219</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>-23.213605622869661</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>-23.277638838000165</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>-25.663718368896181</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <f t="shared" si="0"/>
         <v>53.803839756097382</v>
       </c>
@@ -1506,20 +1514,20 @@
         <v>2894.8531724998052</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="4">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B30" s="3">
         <v>-8.3498929436323643E-2</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>4.7276448747877904</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>-23.015418942152845</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>2.7557474144309899</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <f t="shared" si="0"/>
         <v>26.216409366723784</v>
       </c>
@@ -1544,20 +1552,20 @@
         <v>687.30012008364258</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B31" s="3">
         <v>9.7707707782095685</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>-6.1560815389430816</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>-5.4157454945072532</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>-7.7724294225372335</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <f t="shared" si="0"/>
         <v>16.100266577576459</v>
       </c>
@@ -1582,20 +1590,20 @@
         <v>259.21858386902557</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="4">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B32" s="3">
         <v>26.639437493600006</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>-4.4791803708808686</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>3.5412500658210377</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>-5.5205327180223236</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <f t="shared" si="0"/>
         <v>32.411175310641667</v>
       </c>
@@ -1623,5 +1631,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>